--- a/src/Testdata/Data1.xlsx
+++ b/src/Testdata/Data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MohithaWS\Automation\src\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905B6238-ED8F-4855-BEA1-51D9885C77C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F02CEAC-964D-46D7-8E5F-6C4A073C5721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F509544-88B6-4233-B884-0063C5711EF9}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>Mohitha</t>
   </si>
   <si>
-    <t>mohitha12@gmail.com</t>
+    <t>mohitha21@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/Testdata/Data1.xlsx
+++ b/src/Testdata/Data1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MohithaWS\Automation\src\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F02CEAC-964D-46D7-8E5F-6C4A073C5721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E6E7CC-B60D-4119-89B7-46CA617DFF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F509544-88B6-4233-B884-0063C5711EF9}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>Mohitha</t>
   </si>
   <si>
-    <t>mohitha21@gmail.com</t>
+    <t>mohitha12@gmail.com</t>
   </si>
 </sst>
 </file>
